--- a/RequirementsElicitation/Functional-Requirements.xlsx
+++ b/RequirementsElicitation/Functional-Requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\hirehub\RequirementsElicitation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E514E1-3BD6-4E29-AB00-EA7AF2BEF00D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB18F04C-591F-4D1C-A427-424A4E303486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,45 +39,18 @@
     <t>Actor(s)</t>
   </si>
   <si>
-    <t>Register User</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
-    <t>User, Company</t>
-  </si>
-  <si>
-    <t>Login User</t>
-  </si>
-  <si>
-    <t>Collect User Profile Interests</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Set Up Basic User Information</t>
-  </si>
-  <si>
-    <t>Update Basic User Information</t>
-  </si>
-  <si>
     <t>Manage Profile Privacy Settings</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Delete User Account and Profile</t>
-  </si>
-  <si>
     <t>Password Reset</t>
   </si>
   <si>
-    <t>View Other User Profiles</t>
-  </si>
-  <si>
     <t>Search for Profiles</t>
   </si>
   <si>
@@ -105,9 +78,6 @@
     <t>Send Direct Messages</t>
   </si>
   <si>
-    <t>Follow a User</t>
-  </si>
-  <si>
     <t>Follow a Company</t>
   </si>
   <si>
@@ -138,9 +108,6 @@
     <t>System</t>
   </si>
   <si>
-    <t>Notify Suitable Users of Job Opportunities</t>
-  </si>
-  <si>
     <t>Notify New Connection Requests</t>
   </si>
   <si>
@@ -177,15 +144,6 @@
     <t>Attach Files, Videos, or Images</t>
   </si>
   <si>
-    <t>Collect User Job Preferences</t>
-  </si>
-  <si>
-    <t>Analyze User Job Preferences</t>
-  </si>
-  <si>
-    <t>AI System</t>
-  </si>
-  <si>
     <t>Recommend Jobs Based on Preferences</t>
   </si>
   <si>
@@ -195,9 +153,6 @@
     <t>Suggest Connections Based on Mutual Connections</t>
   </si>
   <si>
-    <t>Analyze User and Job Data for Connection Suggestions</t>
-  </si>
-  <si>
     <t>Dynamic Connection Suggestions</t>
   </si>
   <si>
@@ -213,9 +168,6 @@
     <t>Recommend Connections Based on Learning Posts</t>
   </si>
   <si>
-    <t>Enhance AI Recommendations Using User Feedback</t>
-  </si>
-  <si>
     <t>Generate Dynamic Assessments Based on Job Skills</t>
   </si>
   <si>
@@ -273,9 +225,6 @@
     <t>View System Analytics</t>
   </si>
   <si>
-    <t>Manage User Accounts</t>
-  </si>
-  <si>
     <t>Manage Permissions and Roles</t>
   </si>
   <si>
@@ -283,6 +232,57 @@
   </si>
   <si>
     <t>View System Logs</t>
+  </si>
+  <si>
+    <t>Register Job Seeker</t>
+  </si>
+  <si>
+    <t>Job Seeker, Company</t>
+  </si>
+  <si>
+    <t>Login Job Seeker</t>
+  </si>
+  <si>
+    <t>Collect Job Seeker Profile Interests</t>
+  </si>
+  <si>
+    <t>Job Seeker</t>
+  </si>
+  <si>
+    <t>Set Up Basic Job Seeker Information</t>
+  </si>
+  <si>
+    <t>Update Basic Job Seeker Information</t>
+  </si>
+  <si>
+    <t>Delete Job Seeker Account and Profile</t>
+  </si>
+  <si>
+    <t>View Other Job Seeker Profiles</t>
+  </si>
+  <si>
+    <t>Follow a Job Seeker</t>
+  </si>
+  <si>
+    <t>Notify Suitable Job Seekers of Job Opportunities</t>
+  </si>
+  <si>
+    <t>Collect Job Seeker Job Preferences</t>
+  </si>
+  <si>
+    <t>Analyze Job Seeker Job Preferences</t>
+  </si>
+  <si>
+    <t>Analyze Job Seeker and Job Data for Connection Suggestions</t>
+  </si>
+  <si>
+    <t>Enhance AI Recommendations Using Job Seeker Feedback</t>
+  </si>
+  <si>
+    <t>Manage Job Seeker Accounts</t>
+  </si>
+  <si>
+    <t>Recommendation System</t>
   </si>
 </sst>
 </file>
@@ -634,16 +634,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="66.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -666,13 +666,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -680,13 +680,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -694,13 +694,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -708,13 +708,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -722,13 +722,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -736,13 +736,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -750,13 +750,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -764,13 +764,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -778,13 +778,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -806,13 +806,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -820,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -834,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -848,13 +848,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -862,13 +862,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -876,13 +876,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -890,13 +890,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -904,13 +904,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -918,13 +918,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -932,13 +932,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -946,13 +946,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -960,13 +960,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -974,13 +974,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -988,13 +988,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1002,13 +1002,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1016,13 +1016,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1030,13 +1030,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1044,13 +1044,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1058,13 +1058,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1072,13 +1072,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1086,13 +1086,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1100,13 +1100,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1114,13 +1114,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1128,13 +1128,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1142,13 +1142,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1156,13 +1156,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1170,13 +1170,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1184,13 +1184,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1198,13 +1198,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1212,13 +1212,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1226,13 +1226,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1240,13 +1240,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1254,13 +1254,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1268,13 +1268,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1282,13 +1282,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1296,13 +1296,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1310,13 +1310,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1324,13 +1324,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1338,13 +1338,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1352,13 +1352,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1366,13 +1366,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1380,13 +1380,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1394,13 +1394,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1408,13 +1408,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1422,13 +1422,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1436,13 +1436,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1450,13 +1450,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1464,13 +1464,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1478,13 +1478,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1492,13 +1492,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1506,13 +1506,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1520,13 +1520,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1534,13 +1534,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1548,13 +1548,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1562,13 +1562,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1576,13 +1576,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1590,13 +1590,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1604,13 +1604,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1618,13 +1618,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1632,13 +1632,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1646,13 +1646,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1660,13 +1660,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1674,13 +1674,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
